--- a/statistics/R/roiObjectLvl_Within-PLI_beta/output.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_beta/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.011508270339792043</v>
+        <v>-0.010549247811476037</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0032862028909458885</v>
+        <v>-0.003012352650033717</v>
       </c>
       <c r="E2" t="n">
-        <v>0.012518939319533268</v>
+        <v>0.011475694376238826</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.007388884407517948</v>
+        <v>-0.006773144040224749</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01353788550993515</v>
+        <v>0.012409728384107227</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01030199889400324</v>
+        <v>0.009443498986169613</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005319658239521796</v>
+        <v>0.004876353386228299</v>
       </c>
       <c r="D3" t="n">
-        <v>0.014671929377811782</v>
+        <v>0.013449268596327446</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.00648807612636626</v>
+        <v>-0.00594740311583572</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.015917302362315172</v>
+        <v>-0.014590860498788882</v>
       </c>
       <c r="G3" t="n">
-        <v>8.728128932732337E-4</v>
+        <v>8.00078485500455E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.001994375171884194</v>
+        <v>-0.0018281772408938468</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.003085516512626424</v>
+        <v>-0.002828390136574238</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.1642663028736964E-4</v>
+        <v>-1.9839107776339904E-4</v>
       </c>
       <c r="E4" t="n">
-        <v>7.847055901976097E-4</v>
+        <v>7.193134576811144E-4</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.008898106724193694</v>
+        <v>-0.008156597830510925</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.5302467117877554E-4</v>
+        <v>-4.152726152472086E-4</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0015862407166754577</v>
+        <v>-0.0014540539902858085</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01066139948127523</v>
+        <v>-0.009772949524502278</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0036947205919537485</v>
+        <v>0.0033868272092909824</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.014850007682152028</v>
+        <v>-0.013612507041972643</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0011811920573449042</v>
+        <v>-0.00108275938589944</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0041056689474207875</v>
+        <v>0.003763529868469062</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0029077547096612866</v>
+        <v>0.002665441817189501</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005485962007701184</v>
+        <v>0.0050287985070593955</v>
       </c>
       <c r="D6" t="n">
-        <v>0.004099269819232421</v>
+        <v>0.003757664000963029</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.006516021987507031</v>
+        <v>-0.005973020155214753</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.007137382840707612</v>
+        <v>-0.006542600937315318</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0029844719285712917</v>
+        <v>0.0027357659345237373</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.007602935139167044</v>
+        <v>-0.006969357210903138</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0022973394336584796</v>
+        <v>0.0021058944808536317</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0017147874041618938</v>
+        <v>-0.0015718884538151179</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004461111180478733</v>
+        <v>0.0040893519154388824</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002989522554739943</v>
+        <v>-0.002740395675178281</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.002762625142283537</v>
+        <v>-0.0025324063804265384</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0011883848840370803</v>
+        <v>-0.0010893528103673167</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0021038077304061653</v>
+        <v>-0.0019284904195389918</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008984239056702814</v>
+        <v>0.00823555246864427</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00823441951806339</v>
+        <v>0.007548217891558073</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0011418399099558108</v>
+        <v>-0.0010466865841262107</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01053013164814412</v>
+        <v>0.009652620677465473</v>
       </c>
       <c r="H8" t="n">
-        <v>0.013903593387289054</v>
+        <v>0.012744960605014954</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.008383287039413573</v>
+        <v>-0.007684679786129078</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.006342845693677129</v>
+        <v>-0.0058142752192040514</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.020080428066942685</v>
+        <v>-0.01840705906136414</v>
       </c>
       <c r="F9" t="n">
-        <v>0.012906696861148176</v>
+        <v>0.011831138789385853</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0019401340605711137</v>
+        <v>0.0017784562221901945</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01155378014645747</v>
+        <v>0.010590965134252728</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0023814268790519344</v>
+        <v>0.0021829746391309746</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.005401349222859564</v>
+        <v>-0.0049512367876211605</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.0024298719950894276</v>
+        <v>-0.002227382662165295</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005360642280627631</v>
+        <v>0.004913922090575368</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.004461359533823289</v>
+        <v>-0.004089579572671448</v>
       </c>
       <c r="H10" t="n">
-        <v>4.921863343493593E-4</v>
+        <v>4.5117080648693353E-4</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0054217722695983905</v>
+        <v>-0.004969957913798506</v>
       </c>
       <c r="D11" t="n">
-        <v>1.6510313993153836E-4</v>
+        <v>1.5134454493720417E-4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.009114139548922096</v>
+        <v>0.008354627919845314</v>
       </c>
       <c r="F11" t="n">
-        <v>9.683243378895146E-4</v>
+        <v>8.876306430654068E-4</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0034051697095175415</v>
+        <v>-0.0031214055670577556</v>
       </c>
       <c r="H11" t="n">
-        <v>4.7610736016531763E-4</v>
+        <v>4.364317468182055E-4</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.003163439662295514</v>
+        <v>-0.0028998196904375106</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01028384932067064</v>
+        <v>0.00942686187728134</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.009694464973968114</v>
+        <v>-0.008886592892804107</v>
       </c>
       <c r="F12" t="n">
-        <v>0.014058909743774078</v>
+        <v>0.012887333931792977</v>
       </c>
       <c r="G12" t="n">
-        <v>0.007326076600052023</v>
+        <v>0.006715570216714345</v>
       </c>
       <c r="H12" t="n">
-        <v>-8.686965208704045E-4</v>
+        <v>-7.963051441312319E-4</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.008167207823958383</v>
+        <v>0.00748660717196184</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01103376809898543</v>
+        <v>0.010114287424070084</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.010296657321828967</v>
+        <v>-0.009438602545009889</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0030350084697911006</v>
+        <v>0.002782091097308481</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.012714808004663042</v>
+        <v>-0.011655240670941175</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.006270066910799121</v>
+        <v>-0.005747561334899259</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.004047200786331223</v>
+        <v>-0.0037099340541369985</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.00597155126140636</v>
+        <v>-0.00547392198962246</v>
       </c>
       <c r="E14" t="n">
-        <v>0.003037279434794954</v>
+        <v>0.0027841728152286915</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0026480876864507785</v>
+        <v>0.0024274137125798734</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.002525676438719926</v>
+        <v>-0.00231520340215996</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.005731367885518118</v>
+        <v>-0.005253753895058222</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.006194377735879719</v>
+        <v>-0.005678179591223104</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003917054641692369</v>
+        <v>0.003590633421551248</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008470852455814859</v>
+        <v>0.007764948084496931</v>
       </c>
       <c r="F15" t="n">
-        <v>-9.79284732145147E-4</v>
+        <v>-8.976776711330237E-4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.006854927861670412</v>
+        <v>0.0062836838731979705</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.013364114606350647</v>
+        <v>-0.012250438389154739</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>8.368758368758333E-4</v>
+        <v>7.671361838028079E-4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.008607487097189614</v>
+        <v>0.007890196505757119</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0026081982603721743</v>
+        <v>-0.0023908484053411783</v>
       </c>
       <c r="F16" t="n">
-        <v>0.005452531196238314</v>
+        <v>0.004998153596551785</v>
       </c>
       <c r="G16" t="n">
-        <v>0.004116045618021841</v>
+        <v>0.0037730418165200508</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0031210698303623108</v>
+        <v>-0.0028609806778321367</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0020834640399857995</v>
+        <v>0.0019098420366536195</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.005233651605014822</v>
+        <v>-0.004797513971263628</v>
       </c>
       <c r="E17" t="n">
-        <v>9.453270322835605E-4</v>
+        <v>8.665497795932731E-4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002419328506285068</v>
+        <v>0.002217717797427937</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.001714306062132187</v>
+        <v>-0.0015714472236211807</v>
       </c>
       <c r="H17" t="n">
-        <v>2.1937521937523408E-4</v>
+        <v>2.0109395109396688E-4</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0037697174424863034</v>
+        <v>0.0034555743222791646</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.005484844239339148</v>
+        <v>-0.005027773886060849</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0030001021049613497</v>
+        <v>0.0027500935962146145</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002167818663982385</v>
+        <v>0.0019871671086505727</v>
       </c>
       <c r="G18" t="n">
-        <v>1.0732883403691273E-4</v>
+        <v>9.838476453383205E-5</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.007368319894199837</v>
+        <v>-0.006754293236349823</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.009288114308818263</v>
+        <v>-0.00851410478308337</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.009257654089843276</v>
+        <v>-0.008486182915689644</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0034197805936936887</v>
+        <v>-0.0031347988775524416</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.004650615533641517</v>
+        <v>-0.004263064239171388</v>
       </c>
       <c r="G19" t="n">
-        <v>0.005442258350219914</v>
+        <v>0.004988736821034984</v>
       </c>
       <c r="H19" t="n">
-        <v>0.007232209897006597</v>
+        <v>0.006629525738922698</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.013319622636392775</v>
+        <v>-0.012209654083360028</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.009444725119782282</v>
+        <v>-0.008657664693133782</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01190818038644123</v>
+        <v>0.010915832020904459</v>
       </c>
       <c r="F20" t="n">
-        <v>0.005451401870839256</v>
+        <v>0.004997118381602689</v>
       </c>
       <c r="G20" t="n">
-        <v>0.009500966022705143</v>
+        <v>0.008709218854146356</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0025928157824393894</v>
+        <v>0.002376747800569401</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-8.204790813486074E-4</v>
+        <v>-7.521058245695822E-4</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02454855086434027</v>
+        <v>0.022502838292311922</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.013535883101100488</v>
+        <v>-0.012407892842675433</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0058039892136002025</v>
+        <v>0.00532032344580019</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0015765286074210516</v>
+        <v>0.0014451512234693042</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00913287869809612</v>
+        <v>0.008371805473254723</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0017473713125886192</v>
+        <v>-0.0016017570365396139</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.005572787049236361</v>
+        <v>-0.005108388128466618</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.004481812288136433</v>
+        <v>-0.004108327930791689</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.004398639006257754</v>
+        <v>-0.004032085755736242</v>
       </c>
       <c r="G22" t="n">
-        <v>0.025837792297419587</v>
+        <v>0.023684642939301337</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.00482752656665697</v>
+        <v>-0.0044252326861022595</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.002207717787427982</v>
+        <v>-0.002023741305142268</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0018642745350820333</v>
+        <v>-0.0017089183238252204</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.0037015677747943287</v>
+        <v>-0.003393103793561475</v>
       </c>
       <c r="F23" t="n">
-        <v>0.003631112326764524</v>
+        <v>0.0033285196328674826</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.006200046817895849</v>
+        <v>-0.005683376249737859</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.018882536545580086</v>
+        <v>-0.01730899183344839</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00750242054589878</v>
+        <v>0.006877218833740595</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.0057084410631322025</v>
+        <v>-0.005232737641204466</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.003213372778590129</v>
+        <v>-0.002945591713707646</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0030106557566511316</v>
+        <v>-0.002759767776930211</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0034197517035045033</v>
+        <v>0.003134772394879165</v>
       </c>
       <c r="H24" t="n">
-        <v>0.004993777304990066</v>
+        <v>0.004577629196240912</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007803165224454511</v>
+        <v>0.007152901455750038</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002421393725741572</v>
+        <v>0.0022196109152630428</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.001555325665997559</v>
+        <v>-0.0014257151938311674</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.007687246817681598</v>
+        <v>-0.007046642916208129</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0021087430460666745</v>
+        <v>-0.0019330144588943776</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.0016181836834009977</v>
+        <v>-0.0014833350431176229</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.011476319256639667</v>
+        <v>0.010519959318586347</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.009159849532520331</v>
+        <v>-0.008396528738143616</v>
       </c>
       <c r="E26" t="n">
-        <v>0.009522601710464984</v>
+        <v>0.008729051567926221</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0037553328314197942</v>
+        <v>-0.0034423884288015127</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.435385870168619E-4</v>
+        <v>-4.982437047654775E-4</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0052193985484693395</v>
+        <v>-0.00478444866943023</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.007523707752540687</v>
+        <v>0.006896732106495662</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002978965126181038</v>
+        <v>0.002730718032332602</v>
       </c>
       <c r="E27" t="n">
-        <v>0.005275978567903988</v>
+        <v>0.004836313687245408</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004139938922547576</v>
+        <v>0.003794944012335294</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.004279134713917304</v>
+        <v>-0.0039225401544242255</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.012346903651251462</v>
+        <v>-0.011317995013647192</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.0034953697479577495</v>
+        <v>-0.003204088935627958</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00170161600736643</v>
+        <v>0.001559814673419202</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0042976818339137135</v>
+        <v>0.003939541681087538</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.00911712511091392</v>
+        <v>-0.008357364685004448</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0011955430308465687</v>
+        <v>0.0010959144449426694</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.007454892365378302</v>
+        <v>-0.006833651334930191</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0011235268672339371</v>
+        <v>-0.0010298996282977757</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0035617861704818066</v>
+        <v>-0.0032649706562750402</v>
       </c>
       <c r="E29" t="n">
-        <v>0.006901523205871007</v>
+        <v>0.006326396272048507</v>
       </c>
       <c r="F29" t="n">
-        <v>9.292393193321702E-4</v>
+        <v>8.518027093877834E-4</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004992683253552815</v>
+        <v>0.004576626315756754</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.0061696366044191875</v>
+        <v>-0.005655500220717619</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.01256318430231479</v>
+        <v>0.011516252277121802</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.006958539567235189</v>
+        <v>-0.006378661269965613</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.006752564723579213</v>
+        <v>-0.006189850996614232</v>
       </c>
       <c r="F30" t="n">
-        <v>0.012595104986409367</v>
+        <v>0.011545512904208577</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.005063052889139857</v>
+        <v>-0.00464113181504483</v>
       </c>
       <c r="H30" t="n">
-        <v>6.222603476607191E-4</v>
+        <v>5.704053186890434E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1112,7 @@
         <v>-0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="3">
@@ -1135,7 +1135,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="4">
@@ -1181,7 +1181,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="6">
@@ -1227,7 +1227,7 @@
         <v>-0.001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>20.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02454855086434027</v>
+        <v>0.022502838292311922</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>21.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.025837792297419587</v>
+        <v>0.023684642939301337</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1355,10 +1355,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9790506447139065</v>
+        <v>0.9790506447139059</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8135680721770256</v>
+        <v>0.8135680721770111</v>
       </c>
     </row>
     <row r="3">
@@ -1375,10 +1375,10 @@
         <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9070938546595383</v>
+        <v>0.9070938546595382</v>
       </c>
       <c r="F3" t="n">
-        <v>0.014546769504120798</v>
+        <v>0.014546769504120668</v>
       </c>
     </row>
     <row r="4">
@@ -1398,7 +1398,7 @@
         <v>0.9733891370440004</v>
       </c>
       <c r="F4" t="n">
-        <v>0.654516031810122</v>
+        <v>0.6545160318101215</v>
       </c>
     </row>
     <row r="5">
@@ -1418,7 +1418,7 @@
         <v>0.976014975792119</v>
       </c>
       <c r="F5" t="n">
-        <v>0.729699402980966</v>
+        <v>0.7296994029809657</v>
       </c>
     </row>
     <row r="6">
@@ -1435,10 +1435,10 @@
         <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9266002486511314</v>
+        <v>0.9266002486511316</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04494804491391379</v>
+        <v>0.044948044913914215</v>
       </c>
     </row>
     <row r="7">
@@ -1458,7 +1458,7 @@
         <v>0.9797367195503706</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8314287143449008</v>
+        <v>0.8314287143449013</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1648,7 @@
         <v>29.0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2360230358671128</v>
+        <v>-0.23602303586711454</v>
       </c>
       <c r="I2" t="n">
         <v>28.0</v>
@@ -1686,7 +1686,7 @@
         <v>29.0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.7605216626053759</v>
+        <v>-0.7605216626053806</v>
       </c>
       <c r="I3" t="n">
         <v>28.0</v>
@@ -1724,7 +1724,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3059325645725113</v>
+        <v>0.3059325645725203</v>
       </c>
       <c r="I4" t="n">
         <v>28.0</v>

--- a/statistics/R/roiObjectLvl_Within-PLI_beta/output.xlsx
+++ b/statistics/R/roiObjectLvl_Within-PLI_beta/output.xlsx
@@ -312,22 +312,22 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.010549247811476037</v>
+        <v>-0.011508270339792043</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.003012352650033717</v>
+        <v>-0.0032862028909458885</v>
       </c>
       <c r="E2" t="n">
-        <v>0.011475694376238826</v>
+        <v>0.012518939319533268</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.006773144040224749</v>
+        <v>-0.007388884407517948</v>
       </c>
       <c r="G2" t="n">
-        <v>0.012409728384107227</v>
+        <v>0.01353788550993515</v>
       </c>
       <c r="H2" t="n">
-        <v>0.009443498986169613</v>
+        <v>0.01030199889400324</v>
       </c>
     </row>
     <row r="3">
@@ -338,22 +338,22 @@
         <v>2.0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004876353386228299</v>
+        <v>0.005319658239521796</v>
       </c>
       <c r="D3" t="n">
-        <v>0.013449268596327446</v>
+        <v>0.014671929377811782</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.00594740311583572</v>
+        <v>-0.00648807612636626</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.014590860498788882</v>
+        <v>-0.015917302362315172</v>
       </c>
       <c r="G3" t="n">
-        <v>8.00078485500455E-4</v>
+        <v>8.728128932732337E-4</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0018281772408938468</v>
+        <v>-0.001994375171884194</v>
       </c>
     </row>
     <row r="4">
@@ -364,22 +364,22 @@
         <v>3.0</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.002828390136574238</v>
+        <v>-0.003085516512626424</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.9839107776339904E-4</v>
+        <v>-2.1642663028736964E-4</v>
       </c>
       <c r="E4" t="n">
-        <v>7.193134576811144E-4</v>
+        <v>7.847055901976097E-4</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.008156597830510925</v>
+        <v>-0.008898106724193694</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.152726152472086E-4</v>
+        <v>-4.5302467117877554E-4</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0014540539902858085</v>
+        <v>-0.0015862407166754577</v>
       </c>
     </row>
     <row r="5">
@@ -390,22 +390,22 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.009772949524502278</v>
+        <v>-0.01066139948127523</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0033868272092909824</v>
+        <v>0.0036947205919537485</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.013612507041972643</v>
+        <v>-0.014850007682152028</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.00108275938589944</v>
+        <v>-0.0011811920573449042</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003763529868469062</v>
+        <v>0.0041056689474207875</v>
       </c>
       <c r="H5" t="n">
-        <v>0.002665441817189501</v>
+        <v>0.0029077547096612866</v>
       </c>
     </row>
     <row r="6">
@@ -416,22 +416,22 @@
         <v>5.0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0050287985070593955</v>
+        <v>0.005485962007701184</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003757664000963029</v>
+        <v>0.004099269819232421</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.005973020155214753</v>
+        <v>-0.006516021987507031</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.006542600937315318</v>
+        <v>-0.007137382840707612</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0027357659345237373</v>
+        <v>0.0029844719285712917</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.006969357210903138</v>
+        <v>-0.007602935139167044</v>
       </c>
     </row>
     <row r="7">
@@ -442,22 +442,22 @@
         <v>6.0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0021058944808536317</v>
+        <v>0.0022973394336584796</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0015718884538151179</v>
+        <v>-0.0017147874041618938</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0040893519154388824</v>
+        <v>0.004461111180478733</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002740395675178281</v>
+        <v>-0.002989522554739943</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0025324063804265384</v>
+        <v>-0.002762625142283537</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0010893528103673167</v>
+        <v>-0.0011883848840370803</v>
       </c>
     </row>
     <row r="8">
@@ -468,22 +468,22 @@
         <v>7.0</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0019284904195389918</v>
+        <v>-0.0021038077304061653</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00823555246864427</v>
+        <v>0.008984239056702814</v>
       </c>
       <c r="E8" t="n">
-        <v>0.007548217891558073</v>
+        <v>0.00823441951806339</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0010466865841262107</v>
+        <v>-0.0011418399099558108</v>
       </c>
       <c r="G8" t="n">
-        <v>0.009652620677465473</v>
+        <v>0.01053013164814412</v>
       </c>
       <c r="H8" t="n">
-        <v>0.012744960605014954</v>
+        <v>0.013903593387289054</v>
       </c>
     </row>
     <row r="9">
@@ -494,22 +494,22 @@
         <v>8.0</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.007684679786129078</v>
+        <v>-0.008383287039413573</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0058142752192040514</v>
+        <v>-0.006342845693677129</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.01840705906136414</v>
+        <v>-0.020080428066942685</v>
       </c>
       <c r="F9" t="n">
-        <v>0.011831138789385853</v>
+        <v>0.012906696861148176</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0017784562221901945</v>
+        <v>0.0019401340605711137</v>
       </c>
       <c r="H9" t="n">
-        <v>0.010590965134252728</v>
+        <v>0.01155378014645747</v>
       </c>
     </row>
     <row r="10">
@@ -520,22 +520,22 @@
         <v>9.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0021829746391309746</v>
+        <v>0.0023814268790519344</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0049512367876211605</v>
+        <v>-0.005401349222859564</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.002227382662165295</v>
+        <v>-0.0024298719950894276</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004913922090575368</v>
+        <v>0.005360642280627631</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.004089579572671448</v>
+        <v>-0.004461359533823289</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5117080648693353E-4</v>
+        <v>4.921863343493593E-4</v>
       </c>
     </row>
     <row r="11">
@@ -546,22 +546,22 @@
         <v>10.0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.004969957913798506</v>
+        <v>-0.0054217722695983905</v>
       </c>
       <c r="D11" t="n">
-        <v>1.5134454493720417E-4</v>
+        <v>1.6510313993153836E-4</v>
       </c>
       <c r="E11" t="n">
-        <v>0.008354627919845314</v>
+        <v>0.009114139548922096</v>
       </c>
       <c r="F11" t="n">
-        <v>8.876306430654068E-4</v>
+        <v>9.683243378895146E-4</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0031214055670577556</v>
+        <v>-0.0034051697095175415</v>
       </c>
       <c r="H11" t="n">
-        <v>4.364317468182055E-4</v>
+        <v>4.7610736016531763E-4</v>
       </c>
     </row>
     <row r="12">
@@ -572,22 +572,22 @@
         <v>11.0</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0028998196904375106</v>
+        <v>-0.003163439662295514</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00942686187728134</v>
+        <v>0.01028384932067064</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.008886592892804107</v>
+        <v>-0.009694464973968114</v>
       </c>
       <c r="F12" t="n">
-        <v>0.012887333931792977</v>
+        <v>0.014058909743774078</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006715570216714345</v>
+        <v>0.007326076600052023</v>
       </c>
       <c r="H12" t="n">
-        <v>-7.963051441312319E-4</v>
+        <v>-8.686965208704045E-4</v>
       </c>
     </row>
     <row r="13">
@@ -598,22 +598,22 @@
         <v>12.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00748660717196184</v>
+        <v>0.008167207823958383</v>
       </c>
       <c r="D13" t="n">
-        <v>0.010114287424070084</v>
+        <v>0.01103376809898543</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.009438602545009889</v>
+        <v>-0.010296657321828967</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002782091097308481</v>
+        <v>0.0030350084697911006</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.011655240670941175</v>
+        <v>-0.012714808004663042</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.005747561334899259</v>
+        <v>-0.006270066910799121</v>
       </c>
     </row>
     <row r="14">
@@ -624,22 +624,22 @@
         <v>13.0</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0037099340541369985</v>
+        <v>-0.004047200786331223</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.00547392198962246</v>
+        <v>-0.00597155126140636</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0027841728152286915</v>
+        <v>0.003037279434794954</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0024274137125798734</v>
+        <v>0.0026480876864507785</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.00231520340215996</v>
+        <v>-0.002525676438719926</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.005253753895058222</v>
+        <v>-0.005731367885518118</v>
       </c>
     </row>
     <row r="15">
@@ -650,22 +650,22 @@
         <v>14.0</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.005678179591223104</v>
+        <v>-0.006194377735879719</v>
       </c>
       <c r="D15" t="n">
-        <v>0.003590633421551248</v>
+        <v>0.003917054641692369</v>
       </c>
       <c r="E15" t="n">
-        <v>0.007764948084496931</v>
+        <v>0.008470852455814859</v>
       </c>
       <c r="F15" t="n">
-        <v>-8.976776711330237E-4</v>
+        <v>-9.79284732145147E-4</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0062836838731979705</v>
+        <v>0.006854927861670412</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.012250438389154739</v>
+        <v>-0.013364114606350647</v>
       </c>
     </row>
     <row r="16">
@@ -676,22 +676,22 @@
         <v>15.0</v>
       </c>
       <c r="C16" t="n">
-        <v>7.671361838028079E-4</v>
+        <v>8.368758368758333E-4</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007890196505757119</v>
+        <v>0.008607487097189614</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.0023908484053411783</v>
+        <v>-0.0026081982603721743</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004998153596551785</v>
+        <v>0.005452531196238314</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0037730418165200508</v>
+        <v>0.004116045618021841</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0028609806778321367</v>
+        <v>-0.0031210698303623108</v>
       </c>
     </row>
     <row r="17">
@@ -702,22 +702,22 @@
         <v>16.0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0019098420366536195</v>
+        <v>0.0020834640399857995</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.004797513971263628</v>
+        <v>-0.005233651605014822</v>
       </c>
       <c r="E17" t="n">
-        <v>8.665497795932731E-4</v>
+        <v>9.453270322835605E-4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002217717797427937</v>
+        <v>0.002419328506285068</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0015714472236211807</v>
+        <v>-0.001714306062132187</v>
       </c>
       <c r="H17" t="n">
-        <v>2.0109395109396688E-4</v>
+        <v>2.1937521937523408E-4</v>
       </c>
     </row>
     <row r="18">
@@ -728,22 +728,22 @@
         <v>17.0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0034555743222791646</v>
+        <v>0.0037697174424863034</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.005027773886060849</v>
+        <v>-0.005484844239339148</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0027500935962146145</v>
+        <v>0.0030001021049613497</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0019871671086505727</v>
+        <v>0.002167818663982385</v>
       </c>
       <c r="G18" t="n">
-        <v>9.838476453383205E-5</v>
+        <v>1.0732883403691273E-4</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.006754293236349823</v>
+        <v>-0.007368319894199837</v>
       </c>
     </row>
     <row r="19">
@@ -754,22 +754,22 @@
         <v>18.0</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.00851410478308337</v>
+        <v>-0.009288114308818263</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.008486182915689644</v>
+        <v>-0.009257654089843276</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0031347988775524416</v>
+        <v>-0.0034197805936936887</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.004263064239171388</v>
+        <v>-0.004650615533641517</v>
       </c>
       <c r="G19" t="n">
-        <v>0.004988736821034984</v>
+        <v>0.005442258350219914</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006629525738922698</v>
+        <v>0.007232209897006597</v>
       </c>
     </row>
     <row r="20">
@@ -780,22 +780,22 @@
         <v>19.0</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.012209654083360028</v>
+        <v>-0.013319622636392775</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.008657664693133782</v>
+        <v>-0.009444725119782282</v>
       </c>
       <c r="E20" t="n">
-        <v>0.010915832020904459</v>
+        <v>0.01190818038644123</v>
       </c>
       <c r="F20" t="n">
-        <v>0.004997118381602689</v>
+        <v>0.005451401870839256</v>
       </c>
       <c r="G20" t="n">
-        <v>0.008709218854146356</v>
+        <v>0.009500966022705143</v>
       </c>
       <c r="H20" t="n">
-        <v>0.002376747800569401</v>
+        <v>0.0025928157824393894</v>
       </c>
     </row>
     <row r="21">
@@ -806,22 +806,22 @@
         <v>20.0</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.521058245695822E-4</v>
+        <v>-8.204790813486074E-4</v>
       </c>
       <c r="D21" t="n">
-        <v>0.022502838292311922</v>
+        <v>0.02454855086434027</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.012407892842675433</v>
+        <v>-0.013535883101100488</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00532032344580019</v>
+        <v>0.0058039892136002025</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0014451512234693042</v>
+        <v>0.0015765286074210516</v>
       </c>
       <c r="H21" t="n">
-        <v>0.008371805473254723</v>
+        <v>0.00913287869809612</v>
       </c>
     </row>
     <row r="22">
@@ -832,22 +832,22 @@
         <v>21.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.0016017570365396139</v>
+        <v>-0.0017473713125886192</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.005108388128466618</v>
+        <v>-0.005572787049236361</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.004108327930791689</v>
+        <v>-0.004481812288136433</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.004032085755736242</v>
+        <v>-0.004398639006257754</v>
       </c>
       <c r="G22" t="n">
-        <v>0.023684642939301337</v>
+        <v>0.025837792297419587</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0044252326861022595</v>
+        <v>-0.00482752656665697</v>
       </c>
     </row>
     <row r="23">
@@ -858,22 +858,22 @@
         <v>22.0</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.002023741305142268</v>
+        <v>-0.002207717787427982</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.0017089183238252204</v>
+        <v>-0.0018642745350820333</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.003393103793561475</v>
+        <v>-0.0037015677747943287</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0033285196328674826</v>
+        <v>0.003631112326764524</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.005683376249737859</v>
+        <v>-0.006200046817895849</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.01730899183344839</v>
+        <v>-0.018882536545580086</v>
       </c>
     </row>
     <row r="24">
@@ -884,22 +884,22 @@
         <v>23.0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.006877218833740595</v>
+        <v>0.00750242054589878</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.005232737641204466</v>
+        <v>-0.0057084410631322025</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.002945591713707646</v>
+        <v>-0.003213372778590129</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.002759767776930211</v>
+        <v>-0.0030106557566511316</v>
       </c>
       <c r="G24" t="n">
-        <v>0.003134772394879165</v>
+        <v>0.0034197517035045033</v>
       </c>
       <c r="H24" t="n">
-        <v>0.004577629196240912</v>
+        <v>0.004993777304990066</v>
       </c>
     </row>
     <row r="25">
@@ -910,22 +910,22 @@
         <v>24.0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.007152901455750038</v>
+        <v>0.007803165224454511</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0022196109152630428</v>
+        <v>0.002421393725741572</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.0014257151938311674</v>
+        <v>-0.001555325665997559</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.007046642916208129</v>
+        <v>-0.007687246817681598</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0019330144588943776</v>
+        <v>-0.0021087430460666745</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.0014833350431176229</v>
+        <v>-0.0016181836834009977</v>
       </c>
     </row>
     <row r="26">
@@ -936,22 +936,22 @@
         <v>25.0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.010519959318586347</v>
+        <v>0.011476319256639667</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.008396528738143616</v>
+        <v>-0.009159849532520331</v>
       </c>
       <c r="E26" t="n">
-        <v>0.008729051567926221</v>
+        <v>0.009522601710464984</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0034423884288015127</v>
+        <v>-0.0037553328314197942</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.982437047654775E-4</v>
+        <v>-5.435385870168619E-4</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.00478444866943023</v>
+        <v>-0.0052193985484693395</v>
       </c>
     </row>
     <row r="27">
@@ -962,22 +962,22 @@
         <v>26.0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.006896732106495662</v>
+        <v>0.007523707752540687</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002730718032332602</v>
+        <v>0.002978965126181038</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004836313687245408</v>
+        <v>0.005275978567903988</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003794944012335294</v>
+        <v>0.004139938922547576</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.0039225401544242255</v>
+        <v>-0.004279134713917304</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.011317995013647192</v>
+        <v>-0.012346903651251462</v>
       </c>
     </row>
     <row r="28">
@@ -988,22 +988,22 @@
         <v>27.0</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.003204088935627958</v>
+        <v>-0.0034953697479577495</v>
       </c>
       <c r="D28" t="n">
-        <v>0.001559814673419202</v>
+        <v>0.00170161600736643</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003939541681087538</v>
+        <v>0.0042976818339137135</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.008357364685004448</v>
+        <v>-0.00911712511091392</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0010959144449426694</v>
+        <v>0.0011955430308465687</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.006833651334930191</v>
+        <v>-0.007454892365378302</v>
       </c>
     </row>
     <row r="29">
@@ -1014,22 +1014,22 @@
         <v>28.0</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.0010298996282977757</v>
+        <v>-0.0011235268672339371</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0032649706562750402</v>
+        <v>-0.0035617861704818066</v>
       </c>
       <c r="E29" t="n">
-        <v>0.006326396272048507</v>
+        <v>0.006901523205871007</v>
       </c>
       <c r="F29" t="n">
-        <v>8.518027093877834E-4</v>
+        <v>9.292393193321702E-4</v>
       </c>
       <c r="G29" t="n">
-        <v>0.004576626315756754</v>
+        <v>0.004992683253552815</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.005655500220717619</v>
+        <v>-0.0061696366044191875</v>
       </c>
     </row>
     <row r="30">
@@ -1040,22 +1040,22 @@
         <v>29.0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.011516252277121802</v>
+        <v>0.01256318430231479</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.006378661269965613</v>
+        <v>-0.006958539567235189</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.006189850996614232</v>
+        <v>-0.006752564723579213</v>
       </c>
       <c r="F30" t="n">
-        <v>0.011545512904208577</v>
+        <v>0.012595104986409367</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.00464113181504483</v>
+        <v>-0.005063052889139857</v>
       </c>
       <c r="H30" t="n">
-        <v>5.704053186890434E-4</v>
+        <v>6.222603476607191E-4</v>
       </c>
     </row>
   </sheetData>
@@ -1112,7 +1112,7 @@
         <v>-0.0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="3">
@@ -1135,7 +1135,7 @@
         <v>0.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="4">
@@ -1181,7 +1181,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
     </row>
     <row r="6">
@@ -1227,7 +1227,7 @@
         <v>-0.001</v>
       </c>
       <c r="G7" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1278,7 @@
         <v>20.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.022502838292311922</v>
+        <v>0.02454855086434027</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1301,7 +1301,7 @@
         <v>21.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.023684642939301337</v>
+        <v>0.025837792297419587</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1355,10 +1355,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9790506447139059</v>
+        <v>0.9790506447139065</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8135680721770111</v>
+        <v>0.8135680721770256</v>
       </c>
     </row>
     <row r="3">
@@ -1375,10 +1375,10 @@
         <v>47</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9070938546595382</v>
+        <v>0.9070938546595383</v>
       </c>
       <c r="F3" t="n">
-        <v>0.014546769504120668</v>
+        <v>0.014546769504120798</v>
       </c>
     </row>
     <row r="4">
@@ -1398,7 +1398,7 @@
         <v>0.9733891370440004</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6545160318101215</v>
+        <v>0.654516031810122</v>
       </c>
     </row>
     <row r="5">
@@ -1418,7 +1418,7 @@
         <v>0.976014975792119</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7296994029809657</v>
+        <v>0.729699402980966</v>
       </c>
     </row>
     <row r="6">
@@ -1435,10 +1435,10 @@
         <v>47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9266002486511316</v>
+        <v>0.9266002486511314</v>
       </c>
       <c r="F6" t="n">
-        <v>0.044948044913914215</v>
+        <v>0.04494804491391379</v>
       </c>
     </row>
     <row r="7">
@@ -1458,7 +1458,7 @@
         <v>0.9797367195503706</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8314287143449013</v>
+        <v>0.8314287143449008</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1648,7 @@
         <v>29.0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.23602303586711454</v>
+        <v>-0.2360230358671128</v>
       </c>
       <c r="I2" t="n">
         <v>28.0</v>
@@ -1686,7 +1686,7 @@
         <v>29.0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.7605216626053806</v>
+        <v>-0.7605216626053759</v>
       </c>
       <c r="I3" t="n">
         <v>28.0</v>
@@ -1724,7 +1724,7 @@
         <v>29.0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3059325645725203</v>
+        <v>0.3059325645725113</v>
       </c>
       <c r="I4" t="n">
         <v>28.0</v>
